--- a/src/datagen/resources/data/frostedheart/data/new_food_value.xlsx
+++ b/src/datagen/resources/data/frostedheart/data/new_food_value.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\19053\git\FrostedHeart\src\datagen\resources\data\frostedheart\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyc/Development/FrostedHeart/src/datagen/resources/data/frostedheart/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF2BEF79-000A-4826-895F-C328C8200128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678BB0BD-08EF-6844-876A-795E34FC2076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0AE602BA-7F3C-49AD-8A2A-9F3B940C7B8D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18000" xr2:uid="{0AE602BA-7F3C-49AD-8A2A-9F3B940C7B8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -734,14 +734,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -775,7 +775,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -791,9 +791,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -831,7 +831,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -937,7 +937,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1079,7 +1079,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1090,11 +1090,11 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H99" sqref="H99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
   </cols>
@@ -3265,7 +3265,7 @@
         <v>0.1</v>
       </c>
       <c r="E105">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H105">
         <v>1</v>

--- a/src/datagen/resources/data/frostedheart/data/new_food_value.xlsx
+++ b/src/datagen/resources/data/frostedheart/data/new_food_value.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyc/Development/FrostedHeart/src/datagen/resources/data/frostedheart/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\eclipse-workspace\frostedheart-newdev\src\datagen\resources\data\frostedheart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678BB0BD-08EF-6844-876A-795E34FC2076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9AF153-477C-4C63-866A-FC724F641899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18000" xr2:uid="{0AE602BA-7F3C-49AD-8A2A-9F3B940C7B8D}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19060" xr2:uid="{0AE602BA-7F3C-49AD-8A2A-9F3B940C7B8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -734,14 +734,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -775,7 +775,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -791,9 +791,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -831,7 +831,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -937,7 +937,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1079,7 +1079,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1090,16 +1090,16 @@
   <dimension ref="A1:I112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H99" sqref="H99"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>229</v>
       </c>
@@ -1128,7 +1128,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1386,7 +1386,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1632,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -1727,7 +1727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -1810,7 +1810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -1847,7 +1847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -1867,7 +1867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -1887,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -2073,7 +2073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -2147,13 +2147,13 @@
         <v>0.6</v>
       </c>
       <c r="E50">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>99</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>101</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>105</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>111</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>113</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>115</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>119</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>121</v>
       </c>
@@ -2419,7 +2419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>123</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>125</v>
       </c>
@@ -2459,7 +2459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>127</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>129</v>
       </c>
@@ -2499,7 +2499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>131</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>133</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>135</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>137</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>139</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>143</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>145</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>147</v>
       </c>
@@ -2682,7 +2682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>149</v>
       </c>
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>151</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>153</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>155</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>157</v>
       </c>
@@ -2785,7 +2785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>159</v>
       </c>
@@ -2811,7 +2811,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>161</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>163</v>
       </c>
@@ -2851,7 +2851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>165</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>167</v>
       </c>
@@ -2891,7 +2891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>169</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>171</v>
       </c>
@@ -2931,7 +2931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>173</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>175</v>
       </c>
@@ -2971,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>177</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>179</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>181</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>183</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>185</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>187</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>189</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>191</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>193</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>195</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>197</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>199</v>
       </c>
@@ -3211,7 +3211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>201</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>203</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>205</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>207</v>
       </c>
@@ -3291,7 +3291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>209</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>211</v>
       </c>
@@ -3331,7 +3331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>213</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>215</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>217</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>219</v>
       </c>

--- a/src/datagen/resources/data/frostedheart/data/new_food_value.xlsx
+++ b/src/datagen/resources/data/frostedheart/data/new_food_value.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\eclipse-workspace\frostedheart-newdev\src\datagen\resources\data\frostedheart\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wyc/Development/FrostedHeart/src/datagen/resources/data/frostedheart/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E9AF153-477C-4C63-866A-FC724F641899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65FD79F-3B96-B346-82FE-B47BCC7AE367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-109" yWindow="-109" windowWidth="34995" windowHeight="19060" xr2:uid="{0AE602BA-7F3C-49AD-8A2A-9F3B940C7B8D}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17980" xr2:uid="{0AE602BA-7F3C-49AD-8A2A-9F3B940C7B8D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="234">
   <si>
     <t>caupona:fig</t>
   </si>
@@ -724,6 +724,18 @@
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>supplementaries:pancake</t>
+  </si>
+  <si>
+    <t>minecraft:cake</t>
+  </si>
+  <si>
+    <t>[煎饼]</t>
+  </si>
+  <si>
+    <t>[蛋糕]</t>
   </si>
 </sst>
 </file>
@@ -734,14 +746,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -775,7 +787,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -791,9 +803,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -831,7 +843,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -937,7 +949,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1079,7 +1091,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1087,19 +1099,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9541B326-CEF0-47E4-B338-D6E3DE9C52E0}">
-  <dimension ref="A1:I112"/>
+  <dimension ref="A1:I114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>229</v>
       </c>
@@ -1128,7 +1140,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1148,7 +1160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1168,7 +1180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1191,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1211,7 +1223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1231,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1254,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1274,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1294,7 +1306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1317,7 +1329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1340,7 +1352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1363,7 +1375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1386,7 +1398,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -1406,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1426,7 +1438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -1446,7 +1458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1466,7 +1478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1486,7 +1498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1509,7 +1521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -1529,7 +1541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -1552,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -1572,7 +1584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -1592,7 +1604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -1612,7 +1624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -1632,7 +1644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -1661,7 +1673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -1684,7 +1696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -1707,7 +1719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -1727,7 +1739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -1750,7 +1762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -1770,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -1790,7 +1802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -1810,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -1827,7 +1839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -1847,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -1867,7 +1879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -1887,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -1907,7 +1919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -1927,7 +1939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -1944,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>77</v>
       </c>
@@ -1964,7 +1976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -1984,7 +1996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>81</v>
       </c>
@@ -2007,7 +2019,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>83</v>
       </c>
@@ -2027,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>85</v>
       </c>
@@ -2050,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>87</v>
       </c>
@@ -2073,7 +2085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>89</v>
       </c>
@@ -2093,7 +2105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>91</v>
       </c>
@@ -2113,7 +2125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -2133,7 +2145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>95</v>
       </c>
@@ -2153,7 +2165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -2173,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>99</v>
       </c>
@@ -2193,7 +2205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>101</v>
       </c>
@@ -2210,7 +2222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>103</v>
       </c>
@@ -2230,7 +2242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>105</v>
       </c>
@@ -2250,7 +2262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>107</v>
       </c>
@@ -2270,7 +2282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -2290,7 +2302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>111</v>
       </c>
@@ -2313,7 +2325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>113</v>
       </c>
@@ -2336,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>115</v>
       </c>
@@ -2356,7 +2368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -2376,7 +2388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>119</v>
       </c>
@@ -2399,7 +2411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>121</v>
       </c>
@@ -2419,7 +2431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>123</v>
       </c>
@@ -2439,7 +2451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>125</v>
       </c>
@@ -2459,7 +2471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>127</v>
       </c>
@@ -2479,7 +2491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>129</v>
       </c>
@@ -2499,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>131</v>
       </c>
@@ -2519,7 +2531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>133</v>
       </c>
@@ -2539,7 +2551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>135</v>
       </c>
@@ -2559,7 +2571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>137</v>
       </c>
@@ -2579,7 +2591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>139</v>
       </c>
@@ -2599,7 +2611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>141</v>
       </c>
@@ -2619,7 +2631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>143</v>
       </c>
@@ -2639,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>145</v>
       </c>
@@ -2659,7 +2671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>147</v>
       </c>
@@ -2682,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>149</v>
       </c>
@@ -2702,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>151</v>
       </c>
@@ -2725,7 +2737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>153</v>
       </c>
@@ -2745,7 +2757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>155</v>
       </c>
@@ -2765,7 +2777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>157</v>
       </c>
@@ -2785,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>159</v>
       </c>
@@ -2811,7 +2823,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>161</v>
       </c>
@@ -2831,7 +2843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>163</v>
       </c>
@@ -2851,7 +2863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>165</v>
       </c>
@@ -2871,7 +2883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>167</v>
       </c>
@@ -2891,7 +2903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>169</v>
       </c>
@@ -2911,7 +2923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>171</v>
       </c>
@@ -2931,7 +2943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>173</v>
       </c>
@@ -2951,7 +2963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>175</v>
       </c>
@@ -2971,7 +2983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>177</v>
       </c>
@@ -2991,7 +3003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>179</v>
       </c>
@@ -3011,7 +3023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>181</v>
       </c>
@@ -3031,7 +3043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>183</v>
       </c>
@@ -3051,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>185</v>
       </c>
@@ -3071,7 +3083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>187</v>
       </c>
@@ -3091,7 +3103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>189</v>
       </c>
@@ -3111,7 +3123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>191</v>
       </c>
@@ -3131,7 +3143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>193</v>
       </c>
@@ -3151,7 +3163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>195</v>
       </c>
@@ -3171,7 +3183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>197</v>
       </c>
@@ -3191,7 +3203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>199</v>
       </c>
@@ -3211,7 +3223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>201</v>
       </c>
@@ -3231,7 +3243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>203</v>
       </c>
@@ -3251,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>205</v>
       </c>
@@ -3271,7 +3283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>207</v>
       </c>
@@ -3291,7 +3303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>209</v>
       </c>
@@ -3311,7 +3323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>211</v>
       </c>
@@ -3331,7 +3343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>213</v>
       </c>
@@ -3351,7 +3363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>215</v>
       </c>
@@ -3371,7 +3383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>217</v>
       </c>
@@ -3391,7 +3403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>219</v>
       </c>
@@ -3409,6 +3421,49 @@
       </c>
       <c r="F112">
         <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>230</v>
+      </c>
+      <c r="B113" t="s">
+        <v>232</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="D113">
+        <v>0.2</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>231</v>
+      </c>
+      <c r="B114" t="s">
+        <v>233</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114">
+        <v>0.4</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>0.5</v>
+      </c>
+      <c r="I114">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
